--- a/biology/Botanique/Airelle_des_marécages/Airelle_des_marécages.xlsx
+++ b/biology/Botanique/Airelle_des_marécages/Airelle_des_marécages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Airelle_des_mar%C3%A9cages</t>
+          <t>Airelle_des_marécages</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaccinium uliginosum · Airelle des marais
 La myrtille des marais ou airelle des marais (Vaccinium uliginosum) est une espèce de plante à fleurs de la famille des Ericaceae. C'est un sous-arbrisseau large de 30 à 80 cm que l'on le trouve dans les tourbières, les landes, les pentes rocheuses subalpines et les bois humides des montagnes circumboréales, entre 500 et 3 000 m d'altitude (généralement de 900 à 1 800 m).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Airelle_des_mar%C3%A9cages</t>
+          <t>Airelle_des_marécages</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nom scientifique : Vaccinium uliginosum Linnaeus, 1753[1],[2];
-Nom accepté, recommandé ou typique en français : Airelle des marécages[2],[3] (Canada), Airelle des marais[4],[2],[5] ou Airelle noire[4] (France).
-Autres noms vulgaires (vulgarisation scientifique) : Airelle à petites feuilles[5], Myrtille des marais[6],[7],[8].
-Noms vernaculaires (langage courant), pouvant désigner aussi d'autres espèces : myrtille de loup[2],[4], bleuet traînard[2], orcette[4] ou embrune[réf. souhaitée]. Aussi appelée brimbelle d’âne dans les Vosges [9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique : Vaccinium uliginosum Linnaeus, 1753,;
+Nom accepté, recommandé ou typique en français : Airelle des marécages, (Canada), Airelle des marais ou Airelle noire (France).
+Autres noms vulgaires (vulgarisation scientifique) : Airelle à petites feuilles, Myrtille des marais.
+Noms vernaculaires (langage courant), pouvant désigner aussi d'autres espèces : myrtille de loup bleuet traînard, orcette ou embrune[réf. souhaitée]. Aussi appelée brimbelle d’âne dans les Vosges .
 Attention aux confusions avec l'espèce Vaccinium myrtillus L., la myrtille. Celles-ci sont cependant sans conséquences, les fruits des deux espèces étant comestibles et de saveurs très voisines.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Airelle_des_mar%C3%A9cages</t>
+          <t>Airelle_des_marécages</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vaccinium uliginosum L. Planche botanique de 1872
@@ -559,7 +575,7 @@
 			Fruits et graines
 			Plantules
 Les feuilles de 15 à 25 mm de long, assez fines pour laisser apparaître un fin réseau de nervures, sont entières, obtuses au sommet et glauques. Les rameaux, de couleur brune, présentent une section arrondie (contrairement à Vaccinium myrtillus)
-De mai à juillet, s'épanouissent des fleurs pendantes de 5 mm de long et de couleur verdâtre à blanchâtre. Elles sont visitées principalement par des reines de bourdons (surtout B. pratorum, et B. lucorum, mais aussi B. pascuorum, B. cryptarum, B. jonellus, d'autres hyménoptères dont l'abeille domestique (Apis mellifera) et diverses syrphidés (Diptères)[10].
+De mai à juillet, s'épanouissent des fleurs pendantes de 5 mm de long et de couleur verdâtre à blanchâtre. Elles sont visitées principalement par des reines de bourdons (surtout B. pratorum, et B. lucorum, mais aussi B. pascuorum, B. cryptarum, B. jonellus, d'autres hyménoptères dont l'abeille domestique (Apis mellifera) et diverses syrphidés (Diptères).
 Les baies globuleuses, bleu noir, ressemblent beaucoup aux myrtilles (Vaccinium myrtillus) mais la pulpe intérieure est blanche et non rouge. Appelée également « myrtille aux loups », ce qui indique une qualité nutritive moindre que la myrtille commune.
 </t>
         </is>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Airelle_des_mar%C3%A9cages</t>
+          <t>Airelle_des_marécages</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,15 +607,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Vascan[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Vascan :
 Vaccinium gaultherioides Bigelow
 Vaccinium microphyllum (Lange)
-Vaccinium occidentale A. Gray
-Liste des sous-espèces, variétés et formes
-Selon Catalogue of Life                                   (26 août 2013)[11] :
+Vaccinium occidentale A. Gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Airelle_des_marécages</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Airelle_des_mar%C3%A9cages</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces, variétés et formes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 août 2013) :
 sous-espèce Vaccinium uliginosum subsp. occidentale
-Selon Tropicos                                           (26 août 2013)[12] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 août 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Vaccinium uliginosum subsp. alpinum (Bigelow) Hultén
 sous-espèce Vaccinium uliginosum subsp. gaultherioides (Bigelow) S.B. Young
 sous-espèce Vaccinium uliginosum subsp. microphyllum Lange
@@ -620,45 +675,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Airelle_des_mar%C3%A9cages</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Airelle_des_mar%C3%A9cages</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les baies de Vaccinium uliginosum sont comestibles. Elles peuvent parfois se retrouver mélangées à des cueillettes de Vaccinium myrtillus. La consommation en grandes quantités provoquerait cependant vertiges et migraines[13].
-Des extraits de Vaccinium uliginosum entrent, pour leur pouvoir inhibiteur de la tyrosinase et anti-cytokines, dans la composition de produits cosmétiques destinés à lutter contre le vieillissement de la peau par les rayons ultraviolets[14].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Airelle_des_mar%C3%A9cages</t>
+          <t>Airelle_des_marécages</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,17 +696,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baies de Vaccinium uliginosum sont comestibles. Elles peuvent parfois se retrouver mélangées à des cueillettes de Vaccinium myrtillus. La consommation en grandes quantités provoquerait cependant vertiges et migraines.
+Des extraits de Vaccinium uliginosum entrent, pour leur pouvoir inhibiteur de la tyrosinase et anti-cytokines, dans la composition de produits cosmétiques destinés à lutter contre le vieillissement de la peau par les rayons ultraviolets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Airelle_des_marécages</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Airelle_des_mar%C3%A9cages</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les chenilles des papillons de jour (rhopalocères) suivants se nourrissent de Myrtille des marais :
 Colias chippewa
 Solitaire, Colias palaeno (Pieridae),
 Grand collier argenté, Clossiana euphrosyne,
 Nacré polaire Clossiana polaris (Boloria polaris)
-Petit collier argenté, Clossiana selene (Nymphalidae)[15].</t>
+Petit collier argenté, Clossiana selene (Nymphalidae).</t>
         </is>
       </c>
     </row>
